--- a/Collections/Евро/Vatican_city/#EURO#Vatican_city#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Vatican_city/#EURO#Vatican_city#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="60">
   <si>
     <t>-</t>
   </si>
@@ -540,6 +540,15 @@
   <si>
     <t>Obv: 
 coat of arms of pope Francis</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -726,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,6 +793,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,23 +811,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -878,143 +891,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1039,16 +915,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="27"/>
-    <tableColumn id="2" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1319,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1338,16 +1214,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1357,8 +1233,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1300,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1444,7 +1320,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1464,7 +1340,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1484,7 +1360,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1504,7 +1380,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1762,7 +1638,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1807,16 +1683,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1826,8 +1702,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1769,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1913,7 +1789,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1933,7 +1809,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1953,7 +1829,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1973,7 +1849,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2231,7 +2107,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2276,16 +2152,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2295,8 +2171,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2238,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2382,7 +2258,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2402,7 +2278,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2422,7 +2298,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2442,7 +2318,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2700,7 +2576,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2745,16 +2621,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2764,8 +2640,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2837,7 +2713,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2859,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2881,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2903,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2925,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3207,7 +3083,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3252,16 +3128,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3271,8 +3147,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3344,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3366,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3388,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3410,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3432,7 +3308,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3714,7 +3590,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3759,16 +3635,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3778,8 +3654,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3851,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3873,7 +3749,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3895,7 +3771,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3917,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3939,7 +3815,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4221,7 +4097,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4266,16 +4142,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4285,8 +4161,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4359,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4381,7 +4257,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4403,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4425,7 +4301,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -4447,7 +4323,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4729,7 +4605,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4774,16 +4650,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4793,8 +4669,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4867,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4889,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4911,7 +4787,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4933,7 +4809,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -4955,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5237,7 +5113,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5261,13 +5137,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5332,16 +5208,40 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Vatican_city/#EURO#Vatican_city#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Vatican_city/#EURO#Vatican_city#Regular[2002-present]#circulation_quality.xlsx
@@ -5143,7 +5143,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5236,8 +5236,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
